--- a/docs/StructureDefinition-BRIndividuoNaoIdentificado-1.0.xlsx
+++ b/docs/StructureDefinition-BRIndividuoNaoIdentificado-1.0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -830,15 +833,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -849,23 +852,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.05078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.2734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1200,10 +1203,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -1215,13 +1218,13 @@
         <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1260,19 +1263,19 @@
         <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>82</v>
@@ -1292,13 +1295,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>81</v>
@@ -1320,13 +1323,13 @@
         <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1377,7 +1380,7 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
@@ -1397,10 +1400,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1500,14 +1503,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1526,16 +1529,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1573,19 +1576,19 @@
         <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>82</v>
@@ -1605,10 +1608,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1631,16 +1634,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1648,7 +1651,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>81</v>
@@ -1690,7 +1693,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
@@ -1705,15 +1708,15 @@
         <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1736,13 +1739,13 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1793,7 +1796,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>82</v>
@@ -1805,21 +1808,21 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>96</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>81</v>
@@ -1841,13 +1844,13 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1898,7 +1901,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -1918,10 +1921,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2021,14 +2024,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2047,16 +2050,16 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2094,19 +2097,19 @@
         <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -2126,10 +2129,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2152,16 +2155,16 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2169,7 +2172,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>81</v>
@@ -2211,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
@@ -2226,15 +2229,15 @@
         <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2257,13 +2260,13 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2314,7 +2317,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -2326,21 +2329,21 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>96</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>81</v>
@@ -2362,13 +2365,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2419,7 +2422,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -2439,10 +2442,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2542,14 +2545,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2568,16 +2571,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2615,19 +2618,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -2647,10 +2650,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2673,16 +2676,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2690,7 +2693,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>81</v>
@@ -2732,7 +2735,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>83</v>
@@ -2747,15 +2750,15 @@
         <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2778,13 +2781,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2835,7 +2838,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -2847,18 +2850,18 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2881,16 +2884,16 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -2940,7 +2943,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>83</v>
@@ -2955,15 +2958,15 @@
         <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2986,13 +2989,13 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3043,7 +3046,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -3055,10 +3058,10 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-BRIndividuoNaoIdentificado-1.0.xlsx
+++ b/docs/StructureDefinition-BRIndividuoNaoIdentificado-1.0.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://www.saude.gov.br)</t>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
